--- a/보고/보고양식(김홍준).xlsx
+++ b/보고/보고양식(김홍준).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwn\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FFD4EA-10ED-4475-80C5-4383DB68C96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA81F95-A51A-411D-9B02-0ACF0E96388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,26 +423,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,6 +448,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +822,7 @@
   <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -960,7 +960,7 @@
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -999,8 +999,8 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="15"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1037,8 +1037,8 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="15"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
@@ -1075,8 +1075,8 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="10"/>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
@@ -1111,8 +1111,8 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6">
@@ -1157,10 +1157,10 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1174,10 +1174,10 @@
         <v>0.12</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
@@ -1199,7 +1199,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
         <v>20</v>
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="17"/>
       <c r="D14" s="10" t="s">
         <v>22</v>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
         <v>23</v>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="17"/>
       <c r="D16" s="10" t="s">
         <v>24</v>
@@ -1389,7 +1389,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="17"/>
       <c r="D17" s="10" t="s">
         <v>25</v>
@@ -1427,7 +1427,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="17"/>
       <c r="D18" s="10" t="s">
         <v>26</v>
@@ -1465,8 +1465,8 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="21"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6">
@@ -1514,7 +1514,7 @@
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="15"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="17"/>
       <c r="D21" s="7" t="s">
         <v>3</v>
@@ -1591,7 +1591,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="15"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
         <v>6</v>
@@ -1629,7 +1629,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="15"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="17"/>
       <c r="D23" s="7" t="s">
         <v>8</v>
@@ -1667,7 +1667,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="15"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="17"/>
       <c r="D24" s="7" t="s">
         <v>9</v>
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="15"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="17"/>
       <c r="D25" s="7" t="s">
         <v>10</v>
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="15"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
         <v>27</v>
@@ -1781,7 +1781,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="15"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="17"/>
       <c r="D27" s="7" t="s">
         <v>28</v>
@@ -1819,8 +1819,8 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="6">
@@ -1868,7 +1868,7 @@
       <c r="B29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1907,8 +1907,8 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6">
@@ -1956,7 +1956,7 @@
       <c r="B31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1995,7 +1995,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="15"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="17"/>
       <c r="D32" s="7" t="s">
         <v>31</v>
@@ -2033,7 +2033,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" s="15"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
         <v>32</v>
@@ -2071,7 +2071,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="15"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>33</v>
@@ -2109,7 +2109,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B35" s="15"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="17"/>
       <c r="D35" s="7" t="s">
         <v>34</v>
@@ -2147,7 +2147,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="17"/>
       <c r="D36" s="7" t="s">
         <v>35</v>
@@ -2185,7 +2185,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="15"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="17"/>
       <c r="D37" s="7" t="s">
         <v>36</v>
@@ -2223,7 +2223,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="15"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="17"/>
       <c r="D38" s="7" t="s">
         <v>37</v>
@@ -2261,7 +2261,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B39" s="15"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="17"/>
       <c r="D39" s="7" t="s">
         <v>38</v>
@@ -2299,7 +2299,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B40" s="15"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="17"/>
       <c r="D40" s="7" t="s">
         <v>39</v>
@@ -2337,7 +2337,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B41" s="15"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="17"/>
       <c r="D41" s="7" t="s">
         <v>40</v>
@@ -2375,8 +2375,8 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="12"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6">
@@ -2424,7 +2424,7 @@
       <c r="B43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -2463,7 +2463,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="15"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="17"/>
       <c r="D44" s="7" t="s">
         <v>42</v>
@@ -2501,8 +2501,8 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="12"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="7"/>
       <c r="F45" s="6">
         <f t="shared" ref="F45:O45" si="6">AVERAGE(F43:F44)</f>
@@ -2575,18 +2575,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="C31:C42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="B20:B28"/>
     <mergeCell ref="C20:C28"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="C11:C19"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="C31:C42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B43:B44">

--- a/보고/보고양식(김홍준).xlsx
+++ b/보고/보고양식(김홍준).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwn\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FFD4EA-10ED-4475-80C5-4383DB68C96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A636CBC6-5038-4084-9295-798D5EB7F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -893,11 +893,11 @@
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
@@ -1174,13 +1174,13 @@
         <v>0.12</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -1487,11 +1487,11 @@
       </c>
       <c r="J19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="2"/>

--- a/보고/보고양식(김홍준).xlsx
+++ b/보고/보고양식(김홍준).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwn\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA81F95-A51A-411D-9B02-0ACF0E96388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A164CF19-16E4-4138-83B8-2D11010D2832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -893,19 +893,19 @@
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
@@ -1180,7 +1180,7 @@
         <v>0.15</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="M15" s="9">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
@@ -1487,19 +1487,19 @@
       </c>
       <c r="J19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="2"/>

--- a/보고/보고양식(김홍준).xlsx
+++ b/보고/보고양식(김홍준).xlsx
@@ -170,13 +170,12 @@
   <fonts count="4">
     <font>
       <sz val="11.0"/>
-      <color/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color/>
       <name val="Malgun Gothic"/>
     </font>
     <font>
@@ -341,9 +340,7 @@
       <border/>
     </dxf>
     <dxf>
-      <font>
-        <color/>
-      </font>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -718,11 +715,11 @@
       </c>
       <c r="J3" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0%</v>
+        <v>1%</v>
       </c>
       <c r="K3" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>2%</v>
+        <v>3%</v>
       </c>
       <c r="L3" s="6" t="str">
         <f t="shared" si="1"/>
@@ -734,11 +731,11 @@
       </c>
       <c r="N3" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>3%</v>
+        <v>6%</v>
       </c>
       <c r="O3" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>1%</v>
+        <v>7%</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
@@ -1022,14 +1019,14 @@
       <c r="G11" s="12">
         <v>0.12</v>
       </c>
-      <c r="H11" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.2</v>
+      <c r="H11" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0.6</v>
       </c>
       <c r="K11" s="12">
         <v>0.0</v>
@@ -1067,11 +1064,11 @@
       <c r="I12" s="12">
         <v>0.0</v>
       </c>
-      <c r="J12" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0.3</v>
+      <c r="J12" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0.45</v>
       </c>
       <c r="L12" s="12">
         <v>0.0</v>
@@ -1080,10 +1077,10 @@
         <v>0.0</v>
       </c>
       <c r="N12" s="17">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
       <c r="O12" s="17">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
@@ -1157,11 +1154,11 @@
       <c r="M14" s="12">
         <v>0.0</v>
       </c>
-      <c r="N14" s="12">
-        <v>0.2</v>
+      <c r="N14" s="17">
+        <v>0.5</v>
       </c>
       <c r="O14" s="17">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
@@ -1197,10 +1194,10 @@
         <v>0.0</v>
       </c>
       <c r="N15" s="17">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O15" s="17">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
@@ -1236,10 +1233,10 @@
         <v>0.1</v>
       </c>
       <c r="N16" s="17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O16" s="17">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
@@ -1274,11 +1271,11 @@
       <c r="M17" s="12">
         <v>0.0</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="12">
         <v>0.42</v>
       </c>
       <c r="O17" s="17">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
@@ -1344,11 +1341,11 @@
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1%</v>
+        <v>3%</v>
       </c>
       <c r="K19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>12%</v>
+        <v>15%</v>
       </c>
       <c r="L19" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1360,11 +1357,11 @@
       </c>
       <c r="N19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>15%</v>
+        <v>35%</v>
       </c>
       <c r="O19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>7%</v>
+        <v>42%</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
@@ -3366,17 +3363,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C20:C28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B20:B28"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C29:C30"/>
     <mergeCell ref="B31:B42"/>
     <mergeCell ref="C31:C42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
     <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C20:C28"/>
     <mergeCell ref="C11:C19"/>
   </mergeCells>
   <conditionalFormatting sqref="B43:B44">

--- a/보고/보고양식(김홍준).xlsx
+++ b/보고/보고양식(김홍준).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwn\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5098B5-B908-419B-9C58-A7E146F83400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33E11AD-430A-4226-AA1A-78830F0E261F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="퍼블리싱" sheetId="1" r:id="rId1"/>
+    <sheet name="백앤드" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>페이지</t>
   </si>
@@ -81,7 +82,7 @@
     <t>개인정보 수정</t>
   </si>
   <si>
-    <t>결제수단 관리</t>
+    <t>예약내역 확인</t>
   </si>
   <si>
     <t>차량관리</t>
@@ -161,8 +162,40 @@
     <t>쿠폰함</t>
   </si>
   <si>
-    <t>주차장 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>최예니</t>
+  </si>
+  <si>
+    <t>박민수 예약하기, 이벤트</t>
+  </si>
+  <si>
+    <t>김홍준 메인 페이지</t>
+  </si>
+  <si>
+    <t>김영채 마이 페이지</t>
+  </si>
+  <si>
+    <t>최예니 주차장 업로드, 회원가입, 로그인</t>
+  </si>
+  <si>
+    <t>쿠폰받기</t>
+  </si>
+  <si>
+    <t>내 쿠폰함</t>
+  </si>
+  <si>
+    <t>결제하기</t>
+  </si>
+  <si>
+    <t>이벤트
+결제하기</t>
+  </si>
+  <si>
+    <t>메인페이지</t>
+  </si>
+  <si>
+    <t>주차 업로드
+회원가입
+로그인</t>
   </si>
 </sst>
 </file>
@@ -342,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +415,21 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,15 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -418,6 +457,15 @@
     <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -427,7 +475,127 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -784,25 +952,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V44"/>
+  <dimension ref="B2:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.3984375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" style="8" customWidth="1"/>
     <col min="7" max="22" width="10.59765625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="4"/>
+    <col min="23" max="23" width="9" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -855,86 +1024,93 @@
       <c r="V2" s="3">
         <v>45173</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="W2" s="3">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:O3" si="0">AVERAGE(F13,F21,F23,F35,F37)</f>
-        <v>6.1428571428571423E-2</v>
+        <f t="shared" ref="F3:W3" si="0">AVERAGE(F13,F21,F23,F34,F36)</f>
+        <v>6.2857142857142861E-2</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>8.3818181818181819E-2</v>
+        <v>9.5047619047619061E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.11537662337662338</v>
+        <v>0.1182857142857143</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0.16355844155844157</v>
+        <v>0.17128571428571432</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0.25379220779220779</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0.321064935064935</v>
+        <v>0.31485714285714284</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0.38132467532467529</v>
+        <v>0.38657142857142851</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0.43483116883116885</v>
+        <v>0.44219047619047619</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
-        <v>0.51462337662337665</v>
+        <v>0.51823809523809528</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>0.60779220779220777</v>
+        <v>0.62333333333333329</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:T3" si="1">AVERAGE(P13,P21,P23,P35,P37)</f>
-        <v>0.61636363636363634</v>
+        <f t="shared" si="0"/>
+        <v>0.6361904761904762</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="1"/>
-        <v>0.10999999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.77785714285714291</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" si="1"/>
-        <v>0.14228571428571429</v>
+        <f t="shared" si="0"/>
+        <v>0.82066666666666666</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" si="1"/>
-        <v>0.16142857142857145</v>
+        <f t="shared" si="0"/>
+        <v>0.84342857142857142</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="1"/>
-        <v>0.17942857142857141</v>
+        <f t="shared" si="0"/>
+        <v>0.87276190476190474</v>
       </c>
       <c r="U3" s="6">
-        <f t="shared" ref="U3:V3" si="2">AVERAGE(U13,U21,U23,U35,U37)</f>
-        <v>0.1917142857142857</v>
+        <f t="shared" si="0"/>
+        <v>0.89771428571428569</v>
       </c>
       <c r="V3" s="6">
-        <f t="shared" si="2"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>0.89600000000000013</v>
+      </c>
+      <c r="W3" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
       <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -994,12 +1170,15 @@
       <c r="V5" s="3">
         <v>45173</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
+      <c r="W5" s="3">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1037,30 +1216,33 @@
         <v>0.8</v>
       </c>
       <c r="P6" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="Q6" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14"/>
-      <c r="C7" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
@@ -1099,27 +1281,30 @@
         <v>0.6</v>
       </c>
       <c r="Q7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T7" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="W7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1158,27 +1343,30 @@
         <v>0.9</v>
       </c>
       <c r="Q8" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B9" s="14"/>
-      <c r="C9" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B9" s="19"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1217,27 +1405,30 @@
         <v>0.9</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R9" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S9" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T9" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="U9" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="V9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B10" s="14"/>
-      <c r="C10" s="20"/>
+        <v>0.95</v>
+      </c>
+      <c r="W9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B10" s="19"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1276,27 +1467,30 @@
         <v>0.9</v>
       </c>
       <c r="Q10" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R10" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="S10" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="T10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B11" s="14"/>
-      <c r="C11" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1335,26 +1529,29 @@
         <v>0.9</v>
       </c>
       <c r="Q11" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R11" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="S11" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="T11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B12" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
       <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
@@ -1393,106 +1590,113 @@
         <v>0.8</v>
       </c>
       <c r="P12" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q12" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R12" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S12" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="T12" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="U12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B13" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B13" s="20"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
-        <f t="shared" ref="F13:O13" si="3">AVERAGE(F6:F12)</f>
+        <f t="shared" ref="F13:W13" si="1">AVERAGE(F6:F12)</f>
         <v>0.1142857142857143</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.12857142857142859</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.17142857142857143</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.37142857142857144</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.61428571428571421</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.74285714285714288</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" ref="P13" si="4">AVERAGE(P6:P12)</f>
-        <v>0.84285714285714286</v>
+        <f t="shared" si="1"/>
+        <v>0.86428571428571443</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" ref="Q13" si="5">AVERAGE(Q6:Q12)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.86428571428571443</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" ref="R13" si="6">AVERAGE(R6:R12)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.90000000000000013</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" ref="S13" si="7">AVERAGE(S6:S12)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.90714285714285725</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" ref="T13" si="8">AVERAGE(T6:T12)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.95714285714285718</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" ref="U13" si="9">AVERAGE(U6:U12)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.97857142857142854</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" ref="V13" si="10">AVERAGE(V6:V12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B14" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>0.99285714285714288</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1503,7 +1707,7 @@
         <v>0.3</v>
       </c>
       <c r="G14" s="9">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="H14" s="9">
         <v>0.27</v>
@@ -1548,12 +1752,15 @@
         <v>0.96</v>
       </c>
       <c r="V14" s="9">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B15" s="23"/>
-      <c r="C15" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="W14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B15" s="25"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1568,19 +1775,19 @@
         <v>0.15</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J15" s="9">
         <v>0.15</v>
       </c>
       <c r="K15" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="9">
         <v>0.45</v>
       </c>
-      <c r="L15" s="9">
-        <v>0.3</v>
-      </c>
       <c r="M15" s="9">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="N15" s="9">
         <v>0.55000000000000004</v>
@@ -1607,14 +1814,17 @@
         <v>0.95</v>
       </c>
       <c r="V15" s="9">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B16" s="23"/>
-      <c r="C16" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B16" s="25"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
@@ -1666,14 +1876,17 @@
         <v>0.92</v>
       </c>
       <c r="V16" s="9">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B17" s="23"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="W16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B17" s="25"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
@@ -1692,47 +1905,50 @@
         <v>0</v>
       </c>
       <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="N17" s="9">
         <v>0.3</v>
       </c>
-      <c r="L17" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0.5</v>
-      </c>
       <c r="O17" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="P17" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="R17" s="9">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="S17" s="9">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T17" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U17" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="V17" s="9">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B18" s="23"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="W17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B18" s="25"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -1754,44 +1970,47 @@
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O18" s="9">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P18" s="9">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" s="9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R18" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="U18" s="9">
         <v>0.93</v>
       </c>
-      <c r="S18" s="9">
-        <v>1</v>
-      </c>
-      <c r="T18" s="9">
-        <v>1</v>
-      </c>
-      <c r="U18" s="9">
-        <v>1</v>
-      </c>
       <c r="V18" s="9">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B19" s="23"/>
-      <c r="C19" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="W18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B19" s="25"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
@@ -1816,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="9">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="O19" s="9">
         <v>0.5</v>
@@ -1828,162 +2047,140 @@
         <v>0.5</v>
       </c>
       <c r="Q19" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R19" s="9">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="S19" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="T19" s="9">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="U19" s="9">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="V19" s="9">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B20" s="23"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="10" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="W19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="T20" s="9">
-        <v>1</v>
-      </c>
-      <c r="U20" s="9">
-        <v>1</v>
-      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
       <c r="V20" s="9">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B21" s="24"/>
-      <c r="C21" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:O21" si="11">AVERAGE(F14:F20)</f>
-        <v>4.2857142857142858E-2</v>
+        <f t="shared" ref="F21:U21" si="2">AVERAGE(F14:F19)</f>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="11"/>
-        <v>3.1428571428571431E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="11"/>
-        <v>6.0000000000000005E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.06</v>
+        <f t="shared" si="2"/>
+        <v>9.4999999999999987E-2</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.10714285714285714</v>
+        <f t="shared" si="2"/>
+        <v>0.125</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.19285714285714287</v>
+        <f t="shared" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.19285714285714284</v>
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.20714285714285713</v>
+        <f t="shared" si="2"/>
+        <v>0.21666666666666667</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.39571428571428574</v>
+        <f t="shared" si="2"/>
+        <v>0.37833333333333335</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.45714285714285718</v>
+        <f t="shared" si="2"/>
+        <v>0.44166666666666665</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" ref="P21" si="12">AVERAGE(P14:P20)</f>
-        <v>0.45714285714285718</v>
+        <f t="shared" si="2"/>
+        <v>0.44166666666666665</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" ref="Q21" si="13">AVERAGE(Q14:Q20)</f>
+        <f t="shared" si="2"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21" si="14">AVERAGE(R14:R20)</f>
-        <v>0.71142857142857141</v>
+        <f t="shared" si="2"/>
+        <v>0.71333333333333337</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" ref="S21" si="15">AVERAGE(S14:S20)</f>
-        <v>0.80714285714285727</v>
+        <f t="shared" si="2"/>
+        <v>0.80000000000000016</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" ref="T21" si="16">AVERAGE(T14:T20)</f>
-        <v>0.89714285714285702</v>
+        <f t="shared" si="2"/>
+        <v>0.89666666666666661</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" ref="U21" si="17">AVERAGE(U14:U20)</f>
-        <v>0.95857142857142852</v>
+        <f t="shared" si="2"/>
+        <v>0.96</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" ref="V21" si="18">AVERAGE(V14:V20)</f>
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B22" s="13" t="s">
+        <f>AVERAGE(V14:V20)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W21" s="6">
+        <f>AVERAGE(W14:W20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2018,109 +2215,116 @@
         <v>0.9</v>
       </c>
       <c r="O22" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P22" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B23" s="15"/>
-      <c r="C23" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="W22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B23" s="20"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6">
-        <f t="shared" ref="F23:O23" si="19">AVERAGE(F22:F22)</f>
+        <f t="shared" ref="F23:W23" si="3">AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="19"/>
-        <v>0.95</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" ref="P23" si="20">AVERAGE(P22:P22)</f>
-        <v>0.95</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" ref="Q23" si="21">AVERAGE(Q22:Q22)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" ref="R23" si="22">AVERAGE(R22:R22)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" ref="S23" si="23">AVERAGE(S22:S22)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" ref="T23" si="24">AVERAGE(T22:T22)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" ref="U23" si="25">AVERAGE(U22:U22)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" ref="V23" si="26">AVERAGE(V22:V22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B24" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -2161,27 +2365,30 @@
         <v>0.95</v>
       </c>
       <c r="Q24" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B25" s="14"/>
-      <c r="C25" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="W24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B25" s="19"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="7" t="s">
         <v>21</v>
       </c>
@@ -2220,27 +2427,30 @@
         <v>0.95</v>
       </c>
       <c r="Q25" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B26" s="14"/>
-      <c r="C26" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="W25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B26" s="19"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="7" t="s">
         <v>22</v>
       </c>
@@ -2279,27 +2489,30 @@
         <v>0.95</v>
       </c>
       <c r="Q26" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R26" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="S26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B27" s="14"/>
-      <c r="C27" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="W26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B27" s="19"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="7" t="s">
         <v>23</v>
       </c>
@@ -2338,27 +2551,30 @@
         <v>0.95</v>
       </c>
       <c r="Q27" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R27" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="S27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B28" s="14"/>
-      <c r="C28" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="W27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B28" s="19"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2414,10 +2630,13 @@
       <c r="V28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B29" s="14"/>
-      <c r="C29" s="17"/>
+      <c r="W28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B29" s="19"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2471,12 +2690,15 @@
         <v>0</v>
       </c>
       <c r="V29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B30" s="14"/>
-      <c r="C30" s="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="W29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B30" s="19"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="7" t="s">
         <v>26</v>
       </c>
@@ -2532,12 +2754,15 @@
       <c r="V30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B31" s="14"/>
-      <c r="C31" s="17"/>
+      <c r="W30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B31" s="19"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -2559,44 +2784,47 @@
         <v>0</v>
       </c>
       <c r="L31" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M31" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N31" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O31" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="P31" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Q31" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B32" s="14"/>
-      <c r="C32" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="W31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B32" s="19"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -2618,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N32" s="9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="P32" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="9">
         <v>0</v>
@@ -2650,12 +2878,15 @@
       <c r="V32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B33" s="14"/>
-      <c r="C33" s="17"/>
+      <c r="W32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B33" s="19"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -2698,371 +2929,451 @@
         <v>0</v>
       </c>
       <c r="S33" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T33" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U33" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B34" s="14"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="W33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B34" s="20"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0</v>
-      </c>
-      <c r="R34" s="9">
-        <v>0</v>
-      </c>
-      <c r="S34" s="9">
-        <v>0</v>
-      </c>
-      <c r="T34" s="9">
-        <v>0</v>
-      </c>
-      <c r="U34" s="9">
-        <v>0</v>
-      </c>
-      <c r="V34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B35" s="15"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="7"/>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:W34" si="4">AVERAGE(F24:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.13</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.39</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="P34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="S34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.51</v>
+      </c>
+      <c r="T34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.51</v>
+      </c>
+      <c r="U34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+      <c r="W34" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B35" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="6">
-        <f t="shared" ref="F35:O35" si="27">AVERAGE(F24:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="27"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="27"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" si="27"/>
-        <v>3.6363636363636369E-2</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="27"/>
-        <v>8.1818181818181804E-2</v>
-      </c>
-      <c r="K35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.11818181818181818</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.19090909090909092</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.35454545454545455</v>
-      </c>
-      <c r="O35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.43181818181818182</v>
-      </c>
-      <c r="P35" s="6">
-        <f t="shared" ref="P35" si="28">AVERAGE(P24:P34)</f>
-        <v>0.43181818181818182</v>
-      </c>
-      <c r="Q35" s="6">
-        <f t="shared" ref="Q35" si="29">AVERAGE(Q24:Q34)</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="6">
-        <f t="shared" ref="R35" si="30">AVERAGE(R24:R34)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="6">
-        <f t="shared" ref="S35" si="31">AVERAGE(S24:S34)</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="6">
-        <f t="shared" ref="T35" si="32">AVERAGE(T24:T34)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="6">
-        <f t="shared" ref="U35" si="33">AVERAGE(U24:U34)</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="6">
-        <f t="shared" ref="V35" si="34">AVERAGE(V24:V34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="9">
+      <c r="F35" s="9">
         <v>0.05</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G35" s="9">
         <v>0.05</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H35" s="9">
         <v>0.05</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I35" s="9">
         <v>0.05</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J35" s="9">
         <v>0.08</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K35" s="9">
         <v>0.18</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L35" s="9">
         <v>0.18</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M35" s="9">
         <v>0.18</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N35" s="9">
         <v>0.18</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O35" s="9">
         <v>0.4</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P35" s="9">
         <v>0.4</v>
       </c>
-      <c r="Q36" s="9">
-        <v>0</v>
-      </c>
-      <c r="R36" s="9">
-        <v>0</v>
-      </c>
-      <c r="S36" s="9">
-        <v>0</v>
-      </c>
-      <c r="T36" s="9">
-        <v>0</v>
-      </c>
-      <c r="U36" s="9">
-        <v>0</v>
-      </c>
-      <c r="V36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B37" s="15"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="7"/>
-      <c r="F37" s="6">
-        <f t="shared" ref="F37:O37" si="35">AVERAGE(F36:F36)</f>
+      <c r="Q35" s="9">
+        <v>1</v>
+      </c>
+      <c r="R35" s="9">
+        <v>1</v>
+      </c>
+      <c r="S35" s="9">
+        <v>1</v>
+      </c>
+      <c r="T35" s="9">
+        <v>1</v>
+      </c>
+      <c r="U35" s="9">
+        <v>1</v>
+      </c>
+      <c r="V35" s="9">
+        <v>1</v>
+      </c>
+      <c r="W35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B36" s="20"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="7"/>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:W36" si="5">AVERAGE(F35:F35)</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="35"/>
+      <c r="G36" s="6">
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="H37" s="6">
-        <f t="shared" si="35"/>
+      <c r="H36" s="6">
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="I37" s="6">
-        <f t="shared" si="35"/>
+      <c r="I36" s="6">
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="J37" s="6">
-        <f t="shared" si="35"/>
+      <c r="J36" s="6">
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
-      <c r="K37" s="6">
-        <f t="shared" si="35"/>
+      <c r="K36" s="6">
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
-      <c r="L37" s="6">
-        <f t="shared" si="35"/>
+      <c r="L36" s="6">
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
-      <c r="M37" s="6">
-        <f t="shared" si="35"/>
+      <c r="M36" s="6">
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
-      <c r="N37" s="6">
-        <f t="shared" si="35"/>
+      <c r="N36" s="6">
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
-      <c r="O37" s="6">
-        <f t="shared" si="35"/>
+      <c r="O36" s="6">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="P37" s="6">
-        <f t="shared" ref="P37" si="36">AVERAGE(P36:P36)</f>
+      <c r="P36" s="6">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="Q37" s="6">
-        <f t="shared" ref="Q37" si="37">AVERAGE(Q36:Q36)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="6">
-        <f t="shared" ref="R37" si="38">AVERAGE(R36:R36)</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="6">
-        <f t="shared" ref="S37" si="39">AVERAGE(S36:S36)</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="6">
-        <f t="shared" ref="T37" si="40">AVERAGE(T36:T36)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="6">
-        <f t="shared" ref="U37" si="41">AVERAGE(U36:U36)</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="6">
-        <f t="shared" ref="V37" si="42">AVERAGE(V36:V36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="Q36" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U36" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V36" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W36" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E37" s="8"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="E44" s="8"/>
-      <c r="F44" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
+  <mergeCells count="9">
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B9:B10 E9:E10">
-    <cfRule type="cellIs" dxfId="7" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="193" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14 E14 B15:E20 B36">
-    <cfRule type="cellIs" dxfId="6" priority="168" operator="equal">
+  <conditionalFormatting sqref="B14:C14 E14 B15:E19 B35">
+    <cfRule type="cellIs" dxfId="18" priority="233" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D30">
-    <cfRule type="cellIs" dxfId="5" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:E22">
-    <cfRule type="cellIs" dxfId="4" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="140" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="3" priority="129" operator="equal">
+  <conditionalFormatting sqref="C35:E35">
+    <cfRule type="cellIs" dxfId="15" priority="171" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D12">
-    <cfRule type="cellIs" dxfId="2" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D34">
-    <cfRule type="cellIs" dxfId="1" priority="92" operator="equal">
+  <conditionalFormatting sqref="D20 D31:D33">
+    <cfRule type="cellIs" dxfId="13" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="0" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="489" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F22">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F33">
+    <cfRule type="dataBar" priority="491">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G7 Q6:S12 V6:W12 F8:P8 T8:U8 F9:P9 R9 T9:U9 F10:P10 R10 T10:U10 F11:P11 R11 T11:U11 F12:P12 R12 T12:U12">
+    <cfRule type="dataBar" priority="488">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:I35">
+    <cfRule type="dataBar" priority="507">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:Q15 R14:V16 W14:W20 F16:G19 R17:V19 V20">
+    <cfRule type="dataBar" priority="454">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:Q15 R14:W19 W20 V20">
     <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:V35 W35">
+    <cfRule type="dataBar" priority="529">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6727773E-1231-1DC1-6727-773E12311DC1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G12">
+    <cfRule type="dataBar" priority="400">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79491956-7C4C-7E6F-7949-19567C4C7E6F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G33">
+    <cfRule type="dataBar" priority="494">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3075,8 +3386,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="G14:Q15 H14:P14 Q14:V16 S14:V14 W14:W20 H15:P15 S15:V15 H16:P16 S16:V16 H17:P17 Q17:V19 S17:V17 H18:P18 S18:V18 H19:P19 S19:V19 V20">
+    <cfRule type="dataBar" priority="457">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3084,13 +3395,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}</x14:id>
+          <x14:id>{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F34">
-    <cfRule type="dataBar" priority="430">
+  <conditionalFormatting sqref="G24:Q24">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3098,13 +3409,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}</x14:id>
+          <x14:id>{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="dataBar" priority="436">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3112,13 +3423,2419 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}</x14:id>
+          <x14:id>{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G7 F8:V12">
-    <cfRule type="dataBar" priority="443">
+  <conditionalFormatting sqref="H6:P6 Q6:S12 T6:U6 V6:W12 H7:P7 R7 T7:U7">
+    <cfRule type="dataBar" priority="490">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:P24 Q24:Q30 R24:S24 T24:V27 U24:V24 H25:P25 R25:S25 U25:V25 H26:P26 R26:S26 U26:V26 H27:P27 R27:S27 U27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:V33 W24:W33">
+    <cfRule type="dataBar" priority="526">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:V22 W22">
+    <cfRule type="dataBar" priority="530">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:S12 V6:W12 H9:P9 T9:U9 H10:P10 R10 T10:U10 H11:P11 R11 T11:U11 H12:P12 R12 T12:U12">
+    <cfRule type="dataBar" priority="452">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F24:F33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F6:G7 Q6:S12 V6:W12 F8:P8 T8:U8 F9:P9 R9 T9:U9 F10:P10 R10 T10:U10 F11:P11 R11 T11:U11 F12:P12 R12 T12:U12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F35:I35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F14:Q15 R14:V16 W14:W20 F16:G19 R17:V19 V20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F14:Q15 R14:W19 W20 V20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6727773E-1231-1DC1-6727-773E12311DC1}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F35:V35 W35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79491956-7C4C-7E6F-7949-19567C4C7E6F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G9:G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G25:G33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G14:Q15 H14:P14 Q14:V16 S14:V14 W14:W20 H15:P15 S15:V15 H16:P16 S16:V16 H17:P17 Q17:V19 S17:V17 H18:P18 S18:V18 H19:P19 S19:V19 V20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G24:Q24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6:P6 Q6:S12 T6:U6 V6:W12 H7:P7 R7 T7:U7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H24:P24 Q24:Q30 R24:S24 T24:V27 U24:V24 H25:P25 R25:S25 U25:V25 H26:P26 R26:S26 U26:V26 H27:P27 R27:S27 U27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:V33 W24:W33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I22:V22 W22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q6:S12 V6:W12 H9:P9 T9:U9 H10:P10 R10 T10:U10 H11:P11 R11 T11:U11 H12:P12 R12 T12:U12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:T46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="8" customWidth="1"/>
+    <col min="7" max="20" width="10.59765625" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>45196</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45197</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45198</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45199</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45201</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45202</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45203</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45204</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45205</v>
+      </c>
+      <c r="P2" s="3">
+        <v>45206</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45207</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45208</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45209</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:T3" si="0">AVERAGE(F16,F24,F30,F39)</f>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45190</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45191</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45192</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45193</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45194</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45195</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45196</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45197</v>
+      </c>
+      <c r="N5" s="3">
+        <v>45198</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45199</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45200</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45201</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45202</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45203</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="19"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="19"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="19"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:T16" si="1">AVERAGE(F6:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B18" s="25"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B19" s="25"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B22" s="25"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:T24" si="2">AVERAGE(F17:F22)</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B27" s="25"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B28" s="25"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B29" s="19"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B30" s="20"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:T30" si="3">AVERAGE(F29:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B32" s="19"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B33" s="19"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B34" s="19"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B35" s="19"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B36" s="19"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B37" s="19"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B38" s="19"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B39" s="20"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6">
+        <f t="shared" ref="F39:T39" si="4">AVERAGE(F31:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E40" s="8"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="D41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="D42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="D44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E45" s="8"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="E46" s="8"/>
+      <c r="F46" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B9:B10 E9:E10">
+    <cfRule type="cellIs" dxfId="11" priority="213" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:D37">
+    <cfRule type="cellIs" dxfId="10" priority="151" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:E22 B17:C17 E17">
+    <cfRule type="cellIs" dxfId="9" priority="271" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:E29">
+    <cfRule type="cellIs" dxfId="8" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D15">
+    <cfRule type="cellIs" dxfId="7" priority="136" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="6" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="5" priority="133" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D29">
+    <cfRule type="cellIs" dxfId="4" priority="107" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D36">
+    <cfRule type="cellIs" dxfId="3" priority="235" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="2" priority="127" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="1" priority="105" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="cellIs" dxfId="0" priority="531" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F38">
+    <cfRule type="dataBar" priority="533">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G7 Q6:S12 F8:P8 T8 F9:P9 T9 F10:P10 T10 F11:P11 T11 Q13:S14 F15:R15 T15">
+    <cfRule type="dataBar" priority="522">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:Q18 R17:T19 F19:G22 R20:T22">
+    <cfRule type="dataBar" priority="472">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:Q18 R17:T22">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:T29">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G15">
+    <cfRule type="dataBar" priority="420">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G38">
+    <cfRule type="dataBar" priority="536">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3131,8 +5848,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G12">
-    <cfRule type="dataBar" priority="394">
+  <conditionalFormatting sqref="G17:Q18 H17:P17 Q17:T19 S17:T17 H18:P18 S18:T18 H19:P19 S19:T19 H20:P20 Q20:T22 S20:T20 H21:P21 S21:T21 H22:P22 S22:T22">
+    <cfRule type="dataBar" priority="475">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3140,13 +5857,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
+          <x14:id>{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15 F15 F16:G20">
-    <cfRule type="dataBar" priority="454">
+  <conditionalFormatting sqref="G31:Q31">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3159,22 +5876,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174E-6242-6671-1757-174E62426671}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="G25:T29 I29:T29">
+    <cfRule type="dataBar" priority="572">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3187,8 +5890,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G34">
-    <cfRule type="dataBar" priority="431">
+  <conditionalFormatting sqref="H6:P6 Q6:S12 T6 H7:P7 T7 Q13:S15">
+    <cfRule type="dataBar" priority="524">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3196,55 +5899,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}</x14:id>
+          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="dataBar" priority="437">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:V7">
-    <cfRule type="dataBar" priority="444">
+  <conditionalFormatting sqref="H31:P31 Q31:Q37 R31:S31 T31:T34 H32:P32 R32:S32 H33:P33 R33:S33 H34:P34 R34:S34 H35:P35 R35:T35 H36:P36 R36:T36 H37:P37 R37:T37 H38:T38">
+    <cfRule type="dataBar" priority="568">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3257,8 +5918,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:V12">
-    <cfRule type="dataBar" priority="446">
+  <conditionalFormatting sqref="Q6:S12 H9:P9 T9 H10:P10 T10 H11:P11 T11 Q13:S14 H15:R15 T15">
+    <cfRule type="dataBar" priority="473">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3266,74 +5927,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:V20">
-    <cfRule type="dataBar" priority="457">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:V36">
-    <cfRule type="dataBar" priority="451">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:V22">
-    <cfRule type="dataBar" priority="452">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:V24 H25:V34">
-    <cfRule type="dataBar" priority="448">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B747175E-7253-7761-B747-175E72537761}</x14:id>
+          <x14:id>{6727773E-1231-1DC1-6727-773E12311DC1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
+          <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3341,10 +5946,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F14</xm:sqref>
+          <xm:sqref>F31:F38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}">
+          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3352,10 +5957,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22</xm:sqref>
+          <xm:sqref>F6:G7 Q6:S12 F8:P8 T8 F9:P9 T9 F10:P10 T10 F11:P11 T11 Q13:S14 F15:R15 T15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}">
+          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3363,10 +5968,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F24:F34</xm:sqref>
+          <xm:sqref>F17:Q18 R17:T19 F19:G22 R20:T22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}">
+          <x14:cfRule type="dataBar" id="{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3374,7 +5979,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36</xm:sqref>
+          <xm:sqref>F17:Q18 R17:T22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F25:T29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G9:G15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
@@ -3385,10 +6020,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G7 F8:V12</xm:sqref>
+          <xm:sqref>G32:G38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
+          <x14:cfRule type="dataBar" id="{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3396,7 +6031,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G9:G12</xm:sqref>
+          <xm:sqref>G17:Q18 H17:P17 Q17:T19 S17:T17 H18:P18 S18:T18 H19:P19 S19:T19 H20:P20 Q20:T22 S20:T20 H21:P21 S21:T21 H22:P22 S22:T22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
@@ -3407,18 +6042,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G14:G15 F15 F16:G20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174E-6242-6671-1757-174E62426671}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G22</xm:sqref>
+          <xm:sqref>G31:Q31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C383D39A-B697-B4A5-C383-D39AB697B4A5}">
@@ -3429,10 +6053,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G24</xm:sqref>
+          <xm:sqref>G25:T29 I29:T29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}">
+          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3440,40 +6064,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G25:G34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H24</xm:sqref>
+          <xm:sqref>H6:P6 Q6:S12 T6 H7:P7 T7 Q13:S15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4727571E-3213-3B21-4727-571E32133B21}">
@@ -3484,10 +6075,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:V7</xm:sqref>
+          <xm:sqref>H31:P31 Q31:Q37 R31:S31 T31:T34 H32:P32 R32:S32 H33:P33 R33:S33 H34:P34 R34:S34 H35:P35 R35:T35 H36:P36 R36:T36 H37:P37 R37:T37 H38:T38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
+          <x14:cfRule type="dataBar" id="{6727773E-1231-1DC1-6727-773E12311DC1}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3495,51 +6086,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H9:V12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H14:V20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H36:V36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I22:V22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B747175E-7253-7761-B747-175E72537761}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I24:V24 H25:V34</xm:sqref>
+          <xm:sqref>Q6:S12 H9:P9 T9 H10:P10 T10 H11:P11 T11 Q13:S14 H15:R15 T15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
